--- a/python/크롤링 유료/01 네이버증권뉴스/keyword_analysis_강아지.xlsx
+++ b/python/크롤링 유료/01 네이버증권뉴스/keyword_analysis_강아지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\prog_dev_exam\python\크롤링 유료\01 네이버증권뉴스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EEAE78-55D1-433A-BEDE-D864FB8E9B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43564AEC-603D-4FDB-B75E-1A96F834391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,251 +667,253 @@
     <t>강아지진드기퇴치제추천</t>
   </si>
   <si>
+    <t>강아지무료파양</t>
+  </si>
+  <si>
+    <t>검은고양이분양</t>
+  </si>
+  <si>
+    <t>샴고양이분양가</t>
+  </si>
+  <si>
+    <t>코카스파니엘분양</t>
+  </si>
+  <si>
+    <t>봄베이고양이분양</t>
+  </si>
+  <si>
+    <t>코숏분양</t>
+  </si>
+  <si>
+    <t>케언테리어</t>
+  </si>
+  <si>
+    <t>푸들분양가</t>
+  </si>
+  <si>
+    <t>실버푸들분양</t>
+  </si>
+  <si>
+    <t>파피용분양</t>
+  </si>
+  <si>
+    <t>제주유기견</t>
+  </si>
+  <si>
+    <t>프렌치불독분양가격</t>
+  </si>
+  <si>
+    <t>비숑가격</t>
+  </si>
+  <si>
+    <t>아기고양이분양</t>
+  </si>
+  <si>
+    <t>리트리버분양가격</t>
+  </si>
+  <si>
+    <t>책임분양</t>
+  </si>
+  <si>
+    <t>시바분양</t>
+  </si>
+  <si>
+    <t>진주고양이분양</t>
+  </si>
+  <si>
+    <t>주말에뭐하지</t>
+  </si>
+  <si>
+    <t>서울커플데이트</t>
+  </si>
+  <si>
+    <t>하이포알러지사료</t>
+  </si>
+  <si>
+    <t>빠삐용분양</t>
+  </si>
+  <si>
+    <t>푸들가격</t>
+  </si>
+  <si>
+    <t>랄라프로덕트</t>
+  </si>
+  <si>
+    <t>진도견분양</t>
+  </si>
+  <si>
+    <t>울산고양이미용</t>
+  </si>
+  <si>
+    <t>웨스트화이트테리어</t>
+  </si>
+  <si>
+    <t>말리노이즈분양</t>
+  </si>
+  <si>
+    <t>가정분양강아지</t>
+  </si>
+  <si>
+    <t>저단백사료</t>
+  </si>
+  <si>
+    <t>진주강아지분양</t>
+  </si>
+  <si>
+    <t>원주고양이분양</t>
+  </si>
+  <si>
+    <t>토이푸들가격</t>
+  </si>
+  <si>
+    <t>베스트 진입 구간</t>
+  </si>
+  <si>
+    <t>청주고양이분양</t>
+  </si>
+  <si>
+    <t>달마시안분양</t>
+  </si>
+  <si>
+    <t>인식표목걸이</t>
+  </si>
+  <si>
+    <t>창원강아지분양</t>
+  </si>
+  <si>
+    <t>양산강아지분양</t>
+  </si>
+  <si>
+    <t>양산고양이분양</t>
+  </si>
+  <si>
+    <t>비글분양</t>
+  </si>
+  <si>
+    <t>인천유기견입양</t>
+  </si>
+  <si>
+    <t>보더콜리입양</t>
+  </si>
+  <si>
+    <t>속초유기견</t>
+  </si>
+  <si>
+    <t>비숑프리제분양가</t>
+  </si>
+  <si>
+    <t>말티푸가격</t>
+  </si>
+  <si>
+    <t>고양시유기견</t>
+  </si>
+  <si>
+    <t>로트와일러분양</t>
+  </si>
+  <si>
+    <t>스탠다드푸들분양</t>
+  </si>
+  <si>
+    <t>코카푸분양</t>
+  </si>
+  <si>
+    <t>송파강아지분양</t>
+  </si>
+  <si>
+    <t>진돗개새끼분양</t>
+  </si>
+  <si>
+    <t>강아지목걸이만들기</t>
+  </si>
+  <si>
+    <t>토이푸들분양가</t>
+  </si>
+  <si>
+    <t>실버푸들분양가</t>
+  </si>
+  <si>
+    <t>카네코르소분양</t>
+  </si>
+  <si>
+    <t>골든리트리버가정분양</t>
+  </si>
+  <si>
+    <t>골든두들입양</t>
+  </si>
+  <si>
+    <t>엑조틱숏헤어</t>
+  </si>
+  <si>
+    <t>말라뮤트분양</t>
+  </si>
+  <si>
+    <t>시바이누분양</t>
+  </si>
+  <si>
+    <t>꼬동드툴레아분양</t>
+  </si>
+  <si>
+    <t>파양견입양</t>
+  </si>
+  <si>
+    <t>장모닥스훈트분양</t>
+  </si>
+  <si>
+    <t>강아지이름목걸이</t>
+  </si>
+  <si>
+    <t>애견입양</t>
+  </si>
+  <si>
+    <t>셔틀랜드쉽독분양</t>
+  </si>
+  <si>
+    <t>강아지진주목걸이</t>
+  </si>
+  <si>
+    <t>대형견모자</t>
+  </si>
+  <si>
+    <t>유기묘센터</t>
+  </si>
+  <si>
+    <t>부천애견호텔</t>
+  </si>
+  <si>
+    <t>싱가푸라분양</t>
+  </si>
+  <si>
+    <t>고양이목걸이인식표</t>
+  </si>
+  <si>
+    <t>강아지목걸이제작</t>
+  </si>
+  <si>
+    <t>동물입양</t>
+  </si>
+  <si>
+    <t>강아지오가닉실내복</t>
+  </si>
+  <si>
+    <t>부산애견분양</t>
+  </si>
+  <si>
+    <t>아기고양이옷</t>
+  </si>
+  <si>
+    <t>로투스사료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>알래스칸클리카이</t>
-  </si>
-  <si>
-    <t>강아지무료파양</t>
-  </si>
-  <si>
-    <t>검은고양이분양</t>
-  </si>
-  <si>
-    <t>샴고양이분양가</t>
-  </si>
-  <si>
-    <t>코카스파니엘분양</t>
-  </si>
-  <si>
-    <t>봄베이고양이분양</t>
-  </si>
-  <si>
-    <t>코숏분양</t>
-  </si>
-  <si>
-    <t>케언테리어</t>
-  </si>
-  <si>
-    <t>푸들분양가</t>
-  </si>
-  <si>
-    <t>실버푸들분양</t>
-  </si>
-  <si>
-    <t>파피용분양</t>
-  </si>
-  <si>
-    <t>제주유기견</t>
-  </si>
-  <si>
-    <t>프렌치불독분양가격</t>
-  </si>
-  <si>
-    <t>비숑가격</t>
-  </si>
-  <si>
-    <t>아기고양이분양</t>
-  </si>
-  <si>
-    <t>리트리버분양가격</t>
-  </si>
-  <si>
-    <t>책임분양</t>
-  </si>
-  <si>
-    <t>시바분양</t>
-  </si>
-  <si>
-    <t>진주고양이분양</t>
-  </si>
-  <si>
-    <t>주말에뭐하지</t>
-  </si>
-  <si>
-    <t>서울커플데이트</t>
-  </si>
-  <si>
-    <t>하이포알러지사료</t>
-  </si>
-  <si>
-    <t>빠삐용분양</t>
-  </si>
-  <si>
-    <t>푸들가격</t>
-  </si>
-  <si>
-    <t>랄라프로덕트</t>
-  </si>
-  <si>
-    <t>진도견분양</t>
-  </si>
-  <si>
-    <t>울산고양이미용</t>
-  </si>
-  <si>
-    <t>웨스트화이트테리어</t>
-  </si>
-  <si>
-    <t>말리노이즈분양</t>
-  </si>
-  <si>
-    <t>가정분양강아지</t>
-  </si>
-  <si>
-    <t>저단백사료</t>
-  </si>
-  <si>
-    <t>진주강아지분양</t>
-  </si>
-  <si>
-    <t>원주고양이분양</t>
-  </si>
-  <si>
-    <t>토이푸들가격</t>
-  </si>
-  <si>
-    <t>베스트 진입 구간</t>
-  </si>
-  <si>
-    <t>청주고양이분양</t>
-  </si>
-  <si>
-    <t>달마시안분양</t>
-  </si>
-  <si>
-    <t>로투스사료</t>
-  </si>
-  <si>
-    <t>인식표목걸이</t>
-  </si>
-  <si>
-    <t>창원강아지분양</t>
-  </si>
-  <si>
-    <t>양산강아지분양</t>
-  </si>
-  <si>
-    <t>양산고양이분양</t>
-  </si>
-  <si>
-    <t>비글분양</t>
-  </si>
-  <si>
-    <t>인천유기견입양</t>
-  </si>
-  <si>
-    <t>보더콜리입양</t>
-  </si>
-  <si>
-    <t>속초유기견</t>
-  </si>
-  <si>
-    <t>비숑프리제분양가</t>
-  </si>
-  <si>
-    <t>말티푸가격</t>
-  </si>
-  <si>
-    <t>고양시유기견</t>
-  </si>
-  <si>
-    <t>로트와일러분양</t>
-  </si>
-  <si>
-    <t>스탠다드푸들분양</t>
-  </si>
-  <si>
-    <t>코카푸분양</t>
-  </si>
-  <si>
-    <t>송파강아지분양</t>
-  </si>
-  <si>
-    <t>진돗개새끼분양</t>
-  </si>
-  <si>
-    <t>강아지목걸이만들기</t>
-  </si>
-  <si>
-    <t>토이푸들분양가</t>
-  </si>
-  <si>
-    <t>실버푸들분양가</t>
-  </si>
-  <si>
-    <t>카네코르소분양</t>
-  </si>
-  <si>
-    <t>골든리트리버가정분양</t>
-  </si>
-  <si>
-    <t>골든두들입양</t>
-  </si>
-  <si>
-    <t>엑조틱숏헤어</t>
-  </si>
-  <si>
-    <t>말라뮤트분양</t>
-  </si>
-  <si>
-    <t>시바이누분양</t>
-  </si>
-  <si>
-    <t>꼬동드툴레아분양</t>
-  </si>
-  <si>
-    <t>파양견입양</t>
-  </si>
-  <si>
-    <t>장모닥스훈트분양</t>
-  </si>
-  <si>
-    <t>강아지이름목걸이</t>
-  </si>
-  <si>
-    <t>애견입양</t>
-  </si>
-  <si>
-    <t>셔틀랜드쉽독분양</t>
-  </si>
-  <si>
-    <t>강아지진주목걸이</t>
-  </si>
-  <si>
-    <t>대형견모자</t>
-  </si>
-  <si>
-    <t>유기묘센터</t>
-  </si>
-  <si>
-    <t>부천애견호텔</t>
-  </si>
-  <si>
-    <t>싱가푸라분양</t>
-  </si>
-  <si>
-    <t>고양이목걸이인식표</t>
-  </si>
-  <si>
-    <t>강아지목걸이제작</t>
-  </si>
-  <si>
-    <t>동물입양</t>
-  </si>
-  <si>
-    <t>강아지오가닉실내복</t>
-  </si>
-  <si>
-    <t>부산애견분양</t>
-  </si>
-  <si>
-    <t>아기고양이옷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,13 +935,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -966,16 +981,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,7 +1299,7 @@
   <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1316,1573 +1336,1573 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>190</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>210</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.6</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="2">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2">
+        <v>510</v>
+      </c>
+      <c r="D3" s="2">
+        <v>610</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>420</v>
+      </c>
+      <c r="D4" s="2">
+        <v>470</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="2">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2">
+        <v>390</v>
+      </c>
+      <c r="D5" s="2">
+        <v>450</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="2">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2">
+        <v>530</v>
+      </c>
+      <c r="D6" s="2">
+        <v>600</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>400</v>
+      </c>
+      <c r="D7" s="2">
+        <v>410</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>240</v>
+      </c>
+      <c r="D8" s="2">
+        <v>280</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>210</v>
+      </c>
+      <c r="D9" s="2">
+        <v>230</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>210</v>
+      </c>
+      <c r="D10" s="2">
+        <v>230</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="2">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2">
+        <v>780</v>
+      </c>
+      <c r="D11" s="2">
+        <v>890</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="2">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2">
+        <v>850</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="2">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2">
+        <v>680</v>
+      </c>
+      <c r="D13" s="2">
+        <v>750</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2">
+        <v>560</v>
+      </c>
+      <c r="D14" s="2">
+        <v>630</v>
+      </c>
+      <c r="E14" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B3">
+      <c r="B15" s="2">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2">
+        <v>410</v>
+      </c>
+      <c r="D15" s="2">
+        <v>480</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <v>330</v>
+      </c>
+      <c r="D16" s="2">
+        <v>340</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="2">
+        <v>110</v>
+      </c>
+      <c r="C17" s="2">
+        <v>850</v>
+      </c>
+      <c r="D17" s="2">
+        <v>960</v>
+      </c>
+      <c r="E17" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>210</v>
+      </c>
+      <c r="D18" s="2">
+        <v>220</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="2">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>200</v>
+      </c>
+      <c r="D19" s="2">
+        <v>240</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2">
+        <v>120</v>
+      </c>
+      <c r="C20" s="2">
+        <v>860</v>
+      </c>
+      <c r="D20" s="2">
+        <v>980</v>
+      </c>
+      <c r="E20" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2">
+        <v>430</v>
+      </c>
+      <c r="D21" s="2">
+        <v>490</v>
+      </c>
+      <c r="E21" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="2">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2">
+        <v>720</v>
+      </c>
+      <c r="D22" s="2">
+        <v>800</v>
+      </c>
+      <c r="E22" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2">
+        <v>570</v>
+      </c>
+      <c r="D23" s="2">
+        <v>650</v>
+      </c>
+      <c r="E23" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="2">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2">
+        <v>570</v>
+      </c>
+      <c r="D24" s="2">
+        <v>630</v>
+      </c>
+      <c r="E24" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>240</v>
+      </c>
+      <c r="D25" s="2">
+        <v>250</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B26" s="2">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2">
+        <v>350</v>
+      </c>
+      <c r="D26" s="2">
+        <v>380</v>
+      </c>
+      <c r="E26" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="2">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2">
+        <v>430</v>
+      </c>
+      <c r="D27" s="2">
+        <v>480</v>
+      </c>
+      <c r="E27" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" s="2">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2">
+        <v>580</v>
+      </c>
+      <c r="D28" s="2">
+        <v>660</v>
+      </c>
+      <c r="E28" s="2">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="2">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2">
+        <v>760</v>
+      </c>
+      <c r="D29" s="2">
+        <v>800</v>
+      </c>
+      <c r="E29" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="2">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2">
+        <v>300</v>
+      </c>
+      <c r="D30" s="2">
+        <v>340</v>
+      </c>
+      <c r="E30" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="2">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2">
+        <v>600</v>
+      </c>
+      <c r="D31" s="2">
+        <v>690</v>
+      </c>
+      <c r="E31" s="2">
+        <v>37</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2">
+        <v>580</v>
+      </c>
+      <c r="D32" s="2">
+        <v>630</v>
+      </c>
+      <c r="E32" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B33" s="2">
+        <v>140</v>
+      </c>
+      <c r="C33" s="2">
+        <v>300</v>
+      </c>
+      <c r="D33" s="2">
+        <v>440</v>
+      </c>
+      <c r="E33" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2">
+        <v>610</v>
+      </c>
+      <c r="D34" s="2">
+        <v>670</v>
+      </c>
+      <c r="E34" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="F34" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="2">
         <v>100</v>
       </c>
-      <c r="C3">
-        <v>510</v>
-      </c>
-      <c r="D3">
+      <c r="C35" s="2">
         <v>610</v>
       </c>
-      <c r="E3">
-        <v>1.7</v>
-      </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D35" s="2">
+        <v>710</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4">
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B36" s="2">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2">
+        <v>380</v>
+      </c>
+      <c r="D36" s="2">
+        <v>490</v>
+      </c>
+      <c r="E36" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" s="2">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2">
+        <v>210</v>
+      </c>
+      <c r="D37" s="2">
+        <v>230</v>
+      </c>
+      <c r="E37" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="2">
+        <v>120</v>
+      </c>
+      <c r="C38" s="2">
+        <v>750</v>
+      </c>
+      <c r="D38" s="2">
+        <v>870</v>
+      </c>
+      <c r="E38" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="2">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2">
+        <v>330</v>
+      </c>
+      <c r="D39" s="2">
+        <v>360</v>
+      </c>
+      <c r="E39" s="2">
+        <v>27</v>
+      </c>
+      <c r="F39" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2">
+        <v>40</v>
+      </c>
+      <c r="C40" s="2">
+        <v>490</v>
+      </c>
+      <c r="D40" s="2">
+        <v>530</v>
+      </c>
+      <c r="E40" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="F40" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" s="2">
+        <v>100</v>
+      </c>
+      <c r="C41" s="2">
+        <v>660</v>
+      </c>
+      <c r="D41" s="2">
+        <v>760</v>
+      </c>
+      <c r="E41" s="2">
+        <v>61.2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="2">
+        <v>120</v>
+      </c>
+      <c r="C42" s="2">
+        <v>760</v>
+      </c>
+      <c r="D42" s="2">
+        <v>880</v>
+      </c>
+      <c r="E42" s="2">
+        <v>75</v>
+      </c>
+      <c r="F42" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2">
+        <v>250</v>
+      </c>
+      <c r="D43" s="2">
+        <v>290</v>
+      </c>
+      <c r="E43" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="2">
+        <v>20</v>
+      </c>
+      <c r="C44" s="2">
+        <v>290</v>
+      </c>
+      <c r="D44" s="2">
+        <v>310</v>
+      </c>
+      <c r="E44" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="F44" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="2">
+        <v>60</v>
+      </c>
+      <c r="C45" s="2">
+        <v>400</v>
+      </c>
+      <c r="D45" s="2">
+        <v>460</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46" s="2">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2">
+        <v>190</v>
+      </c>
+      <c r="D46" s="2">
+        <v>210</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="F46" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="2">
+        <v>70</v>
+      </c>
+      <c r="C47" s="2">
+        <v>610</v>
+      </c>
+      <c r="D47" s="2">
+        <v>680</v>
+      </c>
+      <c r="E47" s="2">
+        <v>75</v>
+      </c>
+      <c r="F47" s="2">
+        <v>11</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="2">
+        <v>200</v>
+      </c>
+      <c r="C48" s="2">
+        <v>670</v>
+      </c>
+      <c r="D48" s="2">
+        <v>870</v>
+      </c>
+      <c r="E48" s="2">
+        <v>100</v>
+      </c>
+      <c r="F48" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="2">
+        <v>60</v>
+      </c>
+      <c r="C49" s="2">
+        <v>630</v>
+      </c>
+      <c r="D49" s="2">
+        <v>690</v>
+      </c>
+      <c r="E49" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F49" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="2">
+        <v>60</v>
+      </c>
+      <c r="C50" s="2">
+        <v>750</v>
+      </c>
+      <c r="D50" s="2">
+        <v>810</v>
+      </c>
+      <c r="E50" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="2">
+        <v>30</v>
+      </c>
+      <c r="C51" s="2">
+        <v>630</v>
+      </c>
+      <c r="D51" s="2">
+        <v>660</v>
+      </c>
+      <c r="E51" s="2">
+        <v>85.7</v>
+      </c>
+      <c r="F51" s="2">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="2">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2">
+        <v>630</v>
+      </c>
+      <c r="D52" s="2">
+        <v>740</v>
+      </c>
+      <c r="E52" s="2">
+        <v>100</v>
+      </c>
+      <c r="F52" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="2">
+        <v>60</v>
+      </c>
+      <c r="C53" s="2">
+        <v>310</v>
+      </c>
+      <c r="D53" s="2">
+        <v>370</v>
+      </c>
+      <c r="E53" s="2">
+        <v>51.7</v>
+      </c>
+      <c r="F53" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" s="2">
+        <v>40</v>
+      </c>
+      <c r="C54" s="2">
+        <v>250</v>
+      </c>
+      <c r="D54" s="2">
+        <v>290</v>
+      </c>
+      <c r="E54" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="F54" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" s="2">
         <v>50</v>
       </c>
-      <c r="C4">
+      <c r="C55" s="2">
+        <v>390</v>
+      </c>
+      <c r="D55" s="2">
+        <v>440</v>
+      </c>
+      <c r="E55" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="F55" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="2">
+        <v>30</v>
+      </c>
+      <c r="C56" s="2">
+        <v>380</v>
+      </c>
+      <c r="D56" s="2">
+        <v>410</v>
+      </c>
+      <c r="E56" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="F56" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="2">
+        <v>30</v>
+      </c>
+      <c r="C57" s="2">
+        <v>210</v>
+      </c>
+      <c r="D57" s="2">
+        <v>240</v>
+      </c>
+      <c r="E57" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="F57" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="2">
+        <v>200</v>
+      </c>
+      <c r="C58" s="2">
+        <v>130</v>
+      </c>
+      <c r="D58" s="2">
+        <v>330</v>
+      </c>
+      <c r="E58" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="F58" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="2">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2">
+        <v>810</v>
+      </c>
+      <c r="D59" s="2">
+        <v>920</v>
+      </c>
+      <c r="E59" s="2">
+        <v>136.4</v>
+      </c>
+      <c r="F59" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="2">
+        <v>270</v>
+      </c>
+      <c r="C60" s="2">
+        <v>520</v>
+      </c>
+      <c r="D60" s="2">
+        <v>790</v>
+      </c>
+      <c r="E60" s="2">
+        <v>120</v>
+      </c>
+      <c r="F60" s="2">
+        <v>15.2</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" s="2">
+        <v>100</v>
+      </c>
+      <c r="C61" s="2">
+        <v>440</v>
+      </c>
+      <c r="D61" s="2">
+        <v>540</v>
+      </c>
+      <c r="E61" s="2">
+        <v>83.3</v>
+      </c>
+      <c r="F61" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="2">
+        <v>70</v>
+      </c>
+      <c r="C62" s="2">
+        <v>640</v>
+      </c>
+      <c r="D62" s="2">
+        <v>710</v>
+      </c>
+      <c r="E62" s="2">
+        <v>111.1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2">
+        <v>210</v>
+      </c>
+      <c r="D63" s="2">
+        <v>220</v>
+      </c>
+      <c r="E63" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="F63" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="2">
+        <v>80</v>
+      </c>
+      <c r="C64" s="2">
+        <v>570</v>
+      </c>
+      <c r="D64" s="2">
+        <v>650</v>
+      </c>
+      <c r="E64" s="2">
+        <v>103.4</v>
+      </c>
+      <c r="F64" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="2">
+        <v>90</v>
+      </c>
+      <c r="C65" s="2">
+        <v>610</v>
+      </c>
+      <c r="D65" s="2">
+        <v>700</v>
+      </c>
+      <c r="E65" s="2">
+        <v>120</v>
+      </c>
+      <c r="F65" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="2">
+        <v>40</v>
+      </c>
+      <c r="C66" s="2">
+        <v>750</v>
+      </c>
+      <c r="D66" s="2">
+        <v>790</v>
+      </c>
+      <c r="E66" s="2">
+        <v>136.4</v>
+      </c>
+      <c r="F66" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" s="2">
+        <v>50</v>
+      </c>
+      <c r="C67" s="2">
         <v>420</v>
       </c>
-      <c r="D4">
+      <c r="D67" s="2">
         <v>470</v>
       </c>
-      <c r="E4">
-        <v>2.5</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5">
+      <c r="E67" s="2">
+        <v>83.3</v>
+      </c>
+      <c r="F67" s="2">
+        <v>17.7</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="2">
         <v>60</v>
       </c>
-      <c r="C5">
-        <v>390</v>
-      </c>
-      <c r="D5">
-        <v>450</v>
-      </c>
-      <c r="E5">
-        <v>2.9</v>
-      </c>
-      <c r="F5">
-        <v>0.6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6">
-        <v>70</v>
-      </c>
-      <c r="C6">
-        <v>530</v>
-      </c>
-      <c r="D6">
-        <v>600</v>
-      </c>
-      <c r="E6">
-        <v>4.8</v>
-      </c>
-      <c r="F6">
-        <v>0.8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>400</v>
-      </c>
-      <c r="D7">
-        <v>410</v>
-      </c>
-      <c r="E7">
-        <v>3.5</v>
-      </c>
-      <c r="F7">
-        <v>0.9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>240</v>
-      </c>
-      <c r="D8">
+      <c r="C68" s="2">
+        <v>220</v>
+      </c>
+      <c r="D68" s="2">
         <v>280</v>
       </c>
-      <c r="E8">
-        <v>3.3</v>
-      </c>
-      <c r="F8">
-        <v>1.2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9">
+      <c r="E68" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="F68" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="2">
+        <v>20</v>
+      </c>
+      <c r="C69" s="2">
+        <v>190</v>
+      </c>
+      <c r="D69" s="2">
         <v>210</v>
       </c>
-      <c r="D9">
-        <v>230</v>
-      </c>
-      <c r="E9">
-        <v>2.9</v>
-      </c>
-      <c r="F9">
-        <v>1.3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>210</v>
-      </c>
-      <c r="D10">
-        <v>230</v>
-      </c>
-      <c r="E10">
-        <v>3.2</v>
-      </c>
-      <c r="F10">
-        <v>1.4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11">
-        <v>110</v>
-      </c>
-      <c r="C11">
-        <v>780</v>
-      </c>
-      <c r="D11">
-        <v>890</v>
-      </c>
-      <c r="E11">
-        <v>13.3</v>
-      </c>
-      <c r="F11">
-        <v>1.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12">
-        <v>150</v>
-      </c>
-      <c r="C12">
-        <v>850</v>
-      </c>
-      <c r="D12">
-        <v>1000</v>
-      </c>
-      <c r="E12">
-        <v>16.2</v>
-      </c>
-      <c r="F12">
-        <v>1.6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13">
-        <v>70</v>
-      </c>
-      <c r="C13">
-        <v>680</v>
-      </c>
-      <c r="D13">
-        <v>750</v>
-      </c>
-      <c r="E13">
-        <v>12.8</v>
-      </c>
-      <c r="F13">
-        <v>1.7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <v>70</v>
-      </c>
-      <c r="C14">
-        <v>560</v>
-      </c>
-      <c r="D14">
-        <v>630</v>
-      </c>
-      <c r="E14">
-        <v>11.2</v>
-      </c>
-      <c r="F14">
-        <v>1.8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15">
-        <v>70</v>
-      </c>
-      <c r="C15">
-        <v>410</v>
-      </c>
-      <c r="D15">
-        <v>480</v>
-      </c>
-      <c r="E15">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F15">
-        <v>1.8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>330</v>
-      </c>
-      <c r="D16">
-        <v>340</v>
-      </c>
-      <c r="E16">
-        <v>7.4</v>
-      </c>
-      <c r="F16">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17">
-        <v>110</v>
-      </c>
-      <c r="C17">
-        <v>850</v>
-      </c>
-      <c r="D17">
-        <v>960</v>
-      </c>
-      <c r="E17">
-        <v>22.1</v>
-      </c>
-      <c r="F17">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>210</v>
-      </c>
-      <c r="D18">
-        <v>220</v>
-      </c>
-      <c r="E18">
-        <v>5.4</v>
-      </c>
-      <c r="F18">
-        <v>2.5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>200</v>
-      </c>
-      <c r="D19">
-        <v>240</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>2.5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>120</v>
-      </c>
-      <c r="C20">
-        <v>860</v>
-      </c>
-      <c r="D20">
-        <v>980</v>
-      </c>
-      <c r="E20">
-        <v>28.6</v>
-      </c>
-      <c r="F20">
-        <v>2.9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21">
-        <v>60</v>
-      </c>
-      <c r="C21">
-        <v>430</v>
-      </c>
-      <c r="D21">
-        <v>490</v>
-      </c>
-      <c r="E21">
-        <v>14.1</v>
-      </c>
-      <c r="F21">
-        <v>2.9</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B22">
-        <v>80</v>
-      </c>
-      <c r="C22">
-        <v>720</v>
-      </c>
-      <c r="D22">
-        <v>800</v>
-      </c>
-      <c r="E22">
-        <v>23.6</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23">
-        <v>80</v>
-      </c>
-      <c r="C23">
-        <v>570</v>
-      </c>
-      <c r="D23">
-        <v>650</v>
-      </c>
-      <c r="E23">
-        <v>20.3</v>
-      </c>
-      <c r="F23">
-        <v>3.1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24">
-        <v>60</v>
-      </c>
-      <c r="C24">
-        <v>570</v>
-      </c>
-      <c r="D24">
-        <v>630</v>
-      </c>
-      <c r="E24">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F24">
-        <v>3.2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>240</v>
-      </c>
-      <c r="D25">
-        <v>250</v>
-      </c>
-      <c r="E25">
-        <v>8.6</v>
-      </c>
-      <c r="F25">
-        <v>3.4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>266</v>
-      </c>
-      <c r="B26">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>350</v>
-      </c>
-      <c r="D26">
-        <v>380</v>
-      </c>
-      <c r="E26">
-        <v>13.6</v>
-      </c>
-      <c r="F26">
-        <v>3.6</v>
-      </c>
-      <c r="G26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>278</v>
-      </c>
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>430</v>
-      </c>
-      <c r="D27">
-        <v>480</v>
-      </c>
-      <c r="E27">
-        <v>22.7</v>
-      </c>
-      <c r="F27">
-        <v>4.7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B28">
-        <v>80</v>
-      </c>
-      <c r="C28">
-        <v>580</v>
-      </c>
-      <c r="D28">
-        <v>660</v>
-      </c>
-      <c r="E28">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="F28">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>760</v>
-      </c>
-      <c r="D29">
-        <v>800</v>
-      </c>
-      <c r="E29">
-        <v>41.7</v>
-      </c>
-      <c r="F29">
-        <v>5.2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30">
-        <v>40</v>
-      </c>
-      <c r="C30">
-        <v>300</v>
-      </c>
-      <c r="D30">
-        <v>340</v>
-      </c>
-      <c r="E30">
-        <v>18.2</v>
-      </c>
-      <c r="F30">
-        <v>5.3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31">
-        <v>90</v>
-      </c>
-      <c r="C31">
-        <v>600</v>
-      </c>
-      <c r="D31">
-        <v>690</v>
-      </c>
-      <c r="E31">
-        <v>37</v>
-      </c>
-      <c r="F31">
-        <v>5.4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32">
-        <v>50</v>
-      </c>
-      <c r="C32">
-        <v>580</v>
-      </c>
-      <c r="D32">
-        <v>630</v>
-      </c>
-      <c r="E32">
-        <v>34.1</v>
-      </c>
-      <c r="F32">
-        <v>5.4</v>
-      </c>
-      <c r="G32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33">
-        <v>140</v>
-      </c>
-      <c r="C33">
-        <v>300</v>
-      </c>
-      <c r="D33">
-        <v>440</v>
-      </c>
-      <c r="E33">
-        <v>25.9</v>
-      </c>
-      <c r="F33">
-        <v>5.9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34">
-        <v>60</v>
-      </c>
-      <c r="C34">
-        <v>610</v>
-      </c>
-      <c r="D34">
-        <v>670</v>
-      </c>
-      <c r="E34">
-        <v>41.7</v>
-      </c>
-      <c r="F34">
-        <v>6.2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>610</v>
-      </c>
-      <c r="D35">
-        <v>710</v>
-      </c>
-      <c r="E35">
-        <v>45.5</v>
-      </c>
-      <c r="F35">
-        <v>6.4</v>
-      </c>
-      <c r="G35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>252</v>
-      </c>
-      <c r="B36">
-        <v>110</v>
-      </c>
-      <c r="C36">
-        <v>380</v>
-      </c>
-      <c r="D36">
-        <v>490</v>
-      </c>
-      <c r="E36">
-        <v>31.9</v>
-      </c>
-      <c r="F36">
-        <v>6.5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>288</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>210</v>
-      </c>
-      <c r="D37">
-        <v>230</v>
-      </c>
-      <c r="E37">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F37">
-        <v>7.1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>283</v>
-      </c>
-      <c r="B38">
-        <v>120</v>
-      </c>
-      <c r="C38">
-        <v>750</v>
-      </c>
-      <c r="D38">
-        <v>870</v>
-      </c>
-      <c r="E38">
-        <v>62.5</v>
-      </c>
-      <c r="F38">
-        <v>7.2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39">
-        <v>30</v>
-      </c>
-      <c r="C39">
-        <v>330</v>
-      </c>
-      <c r="D39">
-        <v>360</v>
-      </c>
-      <c r="E39">
-        <v>27</v>
-      </c>
-      <c r="F39">
-        <v>7.5</v>
-      </c>
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40">
-        <v>490</v>
-      </c>
-      <c r="D40">
-        <v>530</v>
-      </c>
-      <c r="E40">
-        <v>42.9</v>
-      </c>
-      <c r="F40">
-        <v>8.1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>251</v>
-      </c>
-      <c r="B41">
-        <v>100</v>
-      </c>
-      <c r="C41">
-        <v>660</v>
-      </c>
-      <c r="D41">
-        <v>760</v>
-      </c>
-      <c r="E41">
-        <v>61.2</v>
-      </c>
-      <c r="F41">
-        <v>8.1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42">
-        <v>120</v>
-      </c>
-      <c r="C42">
-        <v>760</v>
-      </c>
-      <c r="D42">
-        <v>880</v>
-      </c>
-      <c r="E42">
-        <v>75</v>
-      </c>
-      <c r="F42">
-        <v>8.5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>204</v>
-      </c>
-      <c r="B43">
-        <v>40</v>
-      </c>
-      <c r="C43">
-        <v>250</v>
-      </c>
-      <c r="D43">
-        <v>290</v>
-      </c>
-      <c r="E43">
-        <v>25.6</v>
-      </c>
-      <c r="F43">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="G43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>292</v>
-      </c>
-      <c r="B44">
-        <v>20</v>
-      </c>
-      <c r="C44">
-        <v>290</v>
-      </c>
-      <c r="D44">
-        <v>310</v>
-      </c>
-      <c r="E44">
-        <v>28.6</v>
-      </c>
-      <c r="F44">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>264</v>
-      </c>
-      <c r="B45">
-        <v>60</v>
-      </c>
-      <c r="C45">
-        <v>400</v>
-      </c>
-      <c r="D45">
-        <v>460</v>
-      </c>
-      <c r="E45">
-        <v>45.5</v>
-      </c>
-      <c r="F45">
-        <v>9.9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>275</v>
-      </c>
-      <c r="B46">
-        <v>20</v>
-      </c>
-      <c r="C46">
-        <v>190</v>
-      </c>
-      <c r="D46">
-        <v>210</v>
-      </c>
-      <c r="E46">
-        <v>20.8</v>
-      </c>
-      <c r="F46">
-        <v>9.9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>276</v>
-      </c>
-      <c r="B47">
-        <v>70</v>
-      </c>
-      <c r="C47">
-        <v>610</v>
-      </c>
-      <c r="D47">
-        <v>680</v>
-      </c>
-      <c r="E47">
-        <v>75</v>
-      </c>
-      <c r="F47">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>267</v>
-      </c>
-      <c r="B48">
-        <v>200</v>
-      </c>
-      <c r="C48">
-        <v>670</v>
-      </c>
-      <c r="D48">
-        <v>870</v>
-      </c>
-      <c r="E48">
-        <v>100</v>
-      </c>
-      <c r="F48">
-        <v>11.5</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49">
-        <v>60</v>
-      </c>
-      <c r="C49">
-        <v>630</v>
-      </c>
-      <c r="D49">
-        <v>690</v>
-      </c>
-      <c r="E49">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="F49">
-        <v>11.8</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B50">
-        <v>60</v>
-      </c>
-      <c r="C50">
-        <v>750</v>
-      </c>
-      <c r="D50">
-        <v>810</v>
-      </c>
-      <c r="E50">
-        <v>103.4</v>
-      </c>
-      <c r="F50">
-        <v>12.8</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>273</v>
-      </c>
-      <c r="B51">
-        <v>30</v>
-      </c>
-      <c r="C51">
-        <v>630</v>
-      </c>
-      <c r="D51">
-        <v>660</v>
-      </c>
-      <c r="E51">
-        <v>85.7</v>
-      </c>
-      <c r="F51">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>211</v>
-      </c>
-      <c r="B52">
-        <v>110</v>
-      </c>
-      <c r="C52">
-        <v>630</v>
-      </c>
-      <c r="D52">
-        <v>740</v>
-      </c>
-      <c r="E52">
-        <v>100</v>
-      </c>
-      <c r="F52">
-        <v>13.5</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53">
-        <v>60</v>
-      </c>
-      <c r="C53">
-        <v>310</v>
-      </c>
-      <c r="D53">
-        <v>370</v>
-      </c>
-      <c r="E53">
-        <v>51.7</v>
-      </c>
-      <c r="F53">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>280</v>
-      </c>
-      <c r="B54">
-        <v>40</v>
-      </c>
-      <c r="C54">
-        <v>250</v>
-      </c>
-      <c r="D54">
-        <v>290</v>
-      </c>
-      <c r="E54">
-        <v>40.5</v>
-      </c>
-      <c r="F54">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>246</v>
-      </c>
-      <c r="B55">
-        <v>50</v>
-      </c>
-      <c r="C55">
-        <v>390</v>
-      </c>
-      <c r="D55">
-        <v>440</v>
-      </c>
-      <c r="E55">
-        <v>62.5</v>
-      </c>
-      <c r="F55">
-        <v>14.2</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56">
-        <v>30</v>
-      </c>
-      <c r="C56">
-        <v>380</v>
-      </c>
-      <c r="D56">
-        <v>410</v>
-      </c>
-      <c r="E56">
-        <v>58.8</v>
-      </c>
-      <c r="F56">
-        <v>14.3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>155</v>
-      </c>
-      <c r="B57">
-        <v>30</v>
-      </c>
-      <c r="C57">
-        <v>210</v>
-      </c>
-      <c r="D57">
-        <v>240</v>
-      </c>
-      <c r="E57">
-        <v>34.5</v>
-      </c>
-      <c r="F57">
-        <v>14.4</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58">
-        <v>200</v>
-      </c>
-      <c r="C58">
-        <v>130</v>
-      </c>
-      <c r="D58">
-        <v>330</v>
-      </c>
-      <c r="E58">
-        <v>48.4</v>
-      </c>
-      <c r="F58">
-        <v>14.7</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>265</v>
-      </c>
-      <c r="B59">
-        <v>110</v>
-      </c>
-      <c r="C59">
-        <v>810</v>
-      </c>
-      <c r="D59">
-        <v>920</v>
-      </c>
-      <c r="E59">
-        <v>136.4</v>
-      </c>
-      <c r="F59">
-        <v>14.8</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60">
-        <v>270</v>
-      </c>
-      <c r="C60">
-        <v>520</v>
-      </c>
-      <c r="D60">
-        <v>790</v>
-      </c>
-      <c r="E60">
-        <v>120</v>
-      </c>
-      <c r="F60">
-        <v>15.2</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>225</v>
-      </c>
-      <c r="B61">
-        <v>100</v>
-      </c>
-      <c r="C61">
-        <v>440</v>
-      </c>
-      <c r="D61">
-        <v>540</v>
-      </c>
-      <c r="E61">
-        <v>83.3</v>
-      </c>
-      <c r="F61">
-        <v>15.4</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62">
-        <v>70</v>
-      </c>
-      <c r="C62">
-        <v>640</v>
-      </c>
-      <c r="D62">
-        <v>710</v>
-      </c>
-      <c r="E62">
-        <v>111.1</v>
-      </c>
-      <c r="F62">
-        <v>15.6</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-      <c r="C63">
-        <v>210</v>
-      </c>
-      <c r="D63">
-        <v>220</v>
-      </c>
-      <c r="E63">
-        <v>34.5</v>
-      </c>
-      <c r="F63">
-        <v>15.7</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64">
-        <v>80</v>
-      </c>
-      <c r="C64">
-        <v>570</v>
-      </c>
-      <c r="D64">
-        <v>650</v>
-      </c>
-      <c r="E64">
-        <v>103.4</v>
-      </c>
-      <c r="F64">
-        <v>15.9</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65">
-        <v>90</v>
-      </c>
-      <c r="C65">
-        <v>610</v>
-      </c>
-      <c r="D65">
-        <v>700</v>
-      </c>
-      <c r="E65">
-        <v>120</v>
-      </c>
-      <c r="F65">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66">
-        <v>40</v>
-      </c>
-      <c r="C66">
-        <v>750</v>
-      </c>
-      <c r="D66">
-        <v>790</v>
-      </c>
-      <c r="E66">
-        <v>136.4</v>
-      </c>
-      <c r="F66">
-        <v>17.3</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67">
-        <v>50</v>
-      </c>
-      <c r="C67">
-        <v>420</v>
-      </c>
-      <c r="D67">
-        <v>470</v>
-      </c>
-      <c r="E67">
-        <v>83.3</v>
-      </c>
-      <c r="F67">
-        <v>17.7</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68">
-        <v>60</v>
-      </c>
-      <c r="C68">
-        <v>220</v>
-      </c>
-      <c r="D68">
-        <v>280</v>
-      </c>
-      <c r="E68">
-        <v>50.8</v>
-      </c>
-      <c r="F68">
-        <v>18.2</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69">
-        <v>20</v>
-      </c>
-      <c r="C69">
-        <v>190</v>
-      </c>
-      <c r="D69">
-        <v>210</v>
-      </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>38.5</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>18.3</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B70">
         <v>80</v>
@@ -2900,12 +2920,12 @@
         <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B71">
         <v>30</v>
@@ -2974,7 +2994,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B74">
         <v>210</v>
@@ -2997,7 +3017,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75">
         <v>70</v>
@@ -3135,7 +3155,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B81">
         <v>40</v>
@@ -3273,7 +3293,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B87">
         <v>70</v>
@@ -3296,7 +3316,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B88">
         <v>40</v>
@@ -3342,7 +3362,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B90">
         <v>60</v>
@@ -3411,7 +3431,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B93">
         <v>10</v>
@@ -3480,7 +3500,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B96">
         <v>50</v>
@@ -3572,7 +3592,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B100">
         <v>40</v>
@@ -3779,7 +3799,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B109">
         <v>140</v>
@@ -3848,7 +3868,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B112">
         <v>40</v>
@@ -3894,7 +3914,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B114">
         <v>70</v>
@@ -3963,7 +3983,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B117">
         <v>40</v>
@@ -4170,7 +4190,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B126">
         <v>40</v>
@@ -4216,7 +4236,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B128">
         <v>30</v>
@@ -4354,7 +4374,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B134">
         <v>20</v>
@@ -4469,7 +4489,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B139">
         <v>80</v>
@@ -4561,7 +4581,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B143">
         <v>80</v>
@@ -4584,7 +4604,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B144">
         <v>10</v>
@@ -4607,7 +4627,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B145">
         <v>100</v>
@@ -4653,7 +4673,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B147">
         <v>30</v>
@@ -4676,7 +4696,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B148">
         <v>20</v>
@@ -4722,7 +4742,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B150">
         <v>20</v>
@@ -4883,7 +4903,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B157">
         <v>40</v>
@@ -5044,7 +5064,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B164">
         <v>40</v>
@@ -5067,7 +5087,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165">
         <v>80</v>
@@ -5113,7 +5133,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B167">
         <v>50</v>
@@ -5182,7 +5202,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B170">
         <v>70</v>
@@ -5297,7 +5317,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B175">
         <v>20</v>
@@ -5343,7 +5363,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B177">
         <v>60</v>
@@ -5366,7 +5386,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B178">
         <v>40</v>
@@ -5550,7 +5570,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B186">
         <v>80</v>
@@ -5573,7 +5593,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B187">
         <v>40</v>
@@ -5619,7 +5639,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B189">
         <v>40</v>
@@ -5642,7 +5662,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B190">
         <v>50</v>
@@ -5734,7 +5754,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B194">
         <v>30</v>
@@ -5895,7 +5915,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B201">
         <v>20</v>
@@ -5987,7 +6007,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B205">
         <v>60</v>
@@ -6102,7 +6122,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B210">
         <v>50</v>
@@ -6355,7 +6375,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B221">
         <v>50</v>
@@ -6562,7 +6582,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B230">
         <v>50</v>
@@ -6953,7 +6973,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B247">
         <v>40</v>
@@ -7489,7 +7509,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B272">
         <v>90</v>
@@ -7509,7 +7529,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B273">
         <v>260</v>
@@ -7529,7 +7549,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B274">
         <v>90</v>
@@ -7549,7 +7569,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B275">
         <v>60</v>
